--- a/MATTHEW_MEHLENBACHER.xlsx
+++ b/MATTHEW_MEHLENBACHER.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">Delivery</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Breed</t>
   </si>
   <si>
+    <t xml:space="preserve">3bMonday</t>
+  </si>
+  <si>
     <t xml:space="preserve">2bMonday</t>
   </si>
   <si>
@@ -92,6 +95,33 @@
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
+    <t xml:space="preserve">MWF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLUEBERRY SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910-588-4125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">665 AMMON FARM RD, GARLAND, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP-East Commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEHLENBACHER, MATTHEW L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPG240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29166666666666669</t>
+  </si>
+  <si>
     <t xml:space="preserve">THS</t>
   </si>
   <si>
@@ -104,64 +134,55 @@
     <t xml:space="preserve">2659 INDIAN HILL RD, IVANHOE, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">SHP-Central</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEHLENBACHER, MATTHEW L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-296-4466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPG240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27986111111111112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLUEBERRY SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-588-4125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">665 AMMON FARM RD, GARLAND, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4375</t>
+    <t xml:space="preserve">0.19375000000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sow 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910-285-2778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">669 KENAN LOOP RD, WALLACE, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15486111111111112</t>
   </si>
   <si>
     <t xml:space="preserve">FARM 76921</t>
   </si>
   <si>
+    <t xml:space="preserve">910-588-4069</t>
+  </si>
+  <si>
     <t xml:space="preserve">11486 OLD FAYETTEVILLE RD (SR 1002), FAYETTEVILLE, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20972222222222223</t>
+    <t xml:space="preserve">0.2722222222222222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUTHERN PINES 8000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910-529-1079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290 SOUTHERN PINES LN, GARLAND, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27499999999999997</t>
   </si>
   <si>
     <t xml:space="preserve">FARM 26011 CROSS FARROW TO WEAN</t>
   </si>
   <si>
+    <t xml:space="preserve">910-283-7175</t>
+  </si>
+  <si>
     <t xml:space="preserve">20952 US HWY 421, IVANHOE, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47916666666666669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sow 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">669 KENAN LOOP RD, WALLACE, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.45833333333333331</t>
+    <t xml:space="preserve">0.24444444444444446</t>
   </si>
 </sst>
 </file>
@@ -498,7 +519,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
@@ -507,25 +528,26 @@
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="12.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="53.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="12.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="24.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="18.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="23.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="16.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="6.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="9.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="9.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="11.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="9.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="11.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="10.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="11.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="10.71" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="8.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="10.71" hidden="0" customWidth="1"/>
     <col min="20" max="20" width="8.71" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="10.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="8.71" hidden="0" customWidth="1"/>
     <col min="22" max="22" width="10.71" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="5.71" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="11.71" hidden="0" customWidth="1"/>
-    <col min="25" max="25" width="19.71" hidden="0" customWidth="1"/>
-    <col min="26" max="26" width="8.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="10.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="5.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="11.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="19.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="8.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -607,304 +629,369 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>7082</v>
+        <v>7094</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
-        <v>2680</v>
-      </c>
-      <c r="F2"/>
+        <v>2042</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J2"/>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2" t="n">
-        <v>330</v>
-      </c>
+      <c r="M2" t="n">
+        <v>60</v>
+      </c>
+      <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2" t="n">
-        <v>200</v>
-      </c>
+      <c r="Q2" t="n">
+        <v>430</v>
+      </c>
+      <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2" t="n">
-        <v>270</v>
-      </c>
-      <c r="W2" t="n">
-        <v>800</v>
-      </c>
+      <c r="U2" t="n">
+        <v>690</v>
+      </c>
+      <c r="V2"/>
+      <c r="W2"/>
       <c r="X2" t="n">
-        <v>1.90023752969121</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2"/>
+        <v>1180</v>
+      </c>
+      <c r="Y2"/>
+      <c r="Z2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="n">
-        <v>7093</v>
+        <v>7094</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
-        <v>2042</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
+        <v>2680</v>
+      </c>
+      <c r="F3"/>
       <c r="G3" t="s">
         <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J3"/>
       <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="n">
-        <v>180</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3" t="n">
-        <v>562</v>
-      </c>
+      <c r="O3" t="n">
+        <v>120</v>
+      </c>
+      <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3" t="n">
-        <v>718</v>
-      </c>
+      <c r="S3" t="n">
+        <v>175</v>
+      </c>
+      <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3" t="n">
-        <v>1460</v>
-      </c>
-      <c r="X3"/>
-      <c r="Y3" t="s">
+        <v>390</v>
+      </c>
+      <c r="X3" t="n">
+        <v>685</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.0326409495549</v>
+      </c>
+      <c r="Z3" t="s">
         <v>40</v>
       </c>
-      <c r="Z3"/>
+      <c r="AA3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B4" t="n">
-        <v>7082</v>
+        <v>7093</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
       </c>
       <c r="E4" t="n">
-        <v>76921</v>
-      </c>
-      <c r="F4"/>
+        <v>67041</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J4"/>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
-      <c r="N4" t="n">
-        <v>120</v>
-      </c>
-      <c r="O4"/>
+      <c r="N4"/>
+      <c r="O4" t="n">
+        <v>150</v>
+      </c>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4" t="n">
-        <v>120</v>
-      </c>
-      <c r="S4"/>
+      <c r="R4"/>
+      <c r="S4" t="n">
+        <v>980</v>
+      </c>
       <c r="T4"/>
       <c r="U4"/>
-      <c r="V4" t="n">
-        <v>180</v>
-      </c>
+      <c r="V4"/>
       <c r="W4" t="n">
-        <v>420</v>
+        <v>90</v>
       </c>
       <c r="X4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z4"/>
+        <v>1220</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>20.3333333333333</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="n">
-        <v>7093</v>
+        <v>7082</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
-        <v>26011</v>
-      </c>
-      <c r="F5"/>
+        <v>76921</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J5"/>
       <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="n">
-        <v>310</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5" t="n">
-        <v>70</v>
-      </c>
+      <c r="O5" t="n">
+        <v>50</v>
+      </c>
+      <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5" t="n">
-        <v>650</v>
-      </c>
+      <c r="S5" t="n">
+        <v>50</v>
+      </c>
+      <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5" t="n">
-        <v>1030</v>
-      </c>
-      <c r="X5"/>
-      <c r="Y5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z5"/>
+        <v>240</v>
+      </c>
+      <c r="X5" t="n">
+        <v>340</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.04819277108434</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B6" t="n">
-        <v>7093</v>
+        <v>7094</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" t="n">
-        <v>67041</v>
-      </c>
-      <c r="F6"/>
+        <v>2558</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J6"/>
       <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="n">
-        <v>190</v>
-      </c>
-      <c r="M6"/>
+        <v>34</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6" t="n">
+        <v>200</v>
+      </c>
       <c r="N6"/>
       <c r="O6"/>
-      <c r="P6" t="n">
-        <v>582</v>
-      </c>
-      <c r="Q6"/>
+      <c r="P6"/>
+      <c r="Q6" t="n">
+        <v>80</v>
+      </c>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" t="n">
-        <v>738</v>
-      </c>
-      <c r="U6"/>
+      <c r="T6"/>
+      <c r="U6" t="n">
+        <v>435</v>
+      </c>
       <c r="V6"/>
-      <c r="W6" t="n">
-        <v>1510</v>
-      </c>
+      <c r="W6"/>
       <c r="X6" t="n">
-        <v>37.75</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z6"/>
+        <v>715</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.24137931034483</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7093</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="n">
+        <v>26011</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7" t="n">
+        <v>80</v>
+      </c>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7" t="n">
+        <v>795</v>
+      </c>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7" t="n">
+        <v>175</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1050</v>
+      </c>
+      <c r="Y7"/>
+      <c r="Z7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
